--- a/structure_nmds_data.xlsx
+++ b/structure_nmds_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30257d98913de859/GitHub/teaching/CBC_R_club/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3CDE5FA-694F-468E-B248-62796D865D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{B3CDE5FA-694F-468E-B248-62796D865D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{35688993-1656-4ECA-85C1-B273F7D78608}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A8D2CCD-C82D-46ED-9596-1D83F9D4141F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>species_1</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>After Bray-Curtis/dissimilarity matrix conversion, nMDS analysis takes abundance data and makes one dissimilarity value per sampling unit</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,16 +501,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -515,16 +518,16 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>23</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>14</v>
       </c>
     </row>
@@ -532,16 +535,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>127</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>7</v>
       </c>
     </row>
@@ -549,16 +552,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>43</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>13</v>
       </c>
     </row>
@@ -566,16 +569,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>5</v>
       </c>
     </row>
@@ -583,16 +586,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -600,16 +603,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>4</v>
       </c>
     </row>
@@ -617,16 +620,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>0</v>
       </c>
     </row>
